--- a/Finflux Automation Excels/Client/5043-CompondingPenalityCharge-writeoff-verify.xlsx
+++ b/Finflux Automation Excels/Client/5043-CompondingPenalityCharge-writeoff-verify.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
@@ -182,10 +182,10 @@
     <t>% Loan Amount + Interest</t>
   </si>
   <si>
-    <t>$11.67</t>
-  </si>
-  <si>
     <t>$0</t>
+  </si>
+  <si>
+    <t>$9.24</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,11 +726,11 @@
         <v>5000</v>
       </c>
       <c r="B2" s="11">
-        <v>3463.74</v>
+        <v>3466.18</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="11">
-        <v>1536.26</v>
+        <v>1533.82</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
@@ -741,16 +741,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>148.22999999999999</v>
+        <v>148.13999999999999</v>
       </c>
       <c r="B3" s="12">
-        <v>124.59</v>
+        <v>124.58</v>
       </c>
       <c r="C3" s="12">
         <v>0</v>
       </c>
       <c r="D3" s="12">
-        <v>23.64</v>
+        <v>23.56</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
@@ -781,10 +781,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>11.67</v>
+        <v>9.24</v>
       </c>
       <c r="B5" s="12">
-        <v>11.67</v>
+        <v>9.24</v>
       </c>
       <c r="C5" s="12">
         <v>0</v>
@@ -809,7 +809,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,23 +1009,23 @@
         <v>1497.5</v>
       </c>
       <c r="H5" s="12">
-        <v>27.09</v>
+        <v>27.08</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
       </c>
       <c r="J5" s="12">
-        <v>11.67</v>
+        <v>9.24</v>
       </c>
       <c r="K5" s="12">
-        <v>899.39</v>
+        <v>896.96</v>
       </c>
       <c r="L5" s="11">
         <v>1824.56</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="12">
-        <v>963.93</v>
+        <v>963.92</v>
       </c>
       <c r="O5" s="12">
         <v>0</v>
@@ -1050,13 +1050,13 @@
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="12">
-        <v>742.86</v>
+        <v>742.89</v>
       </c>
       <c r="G6" s="12">
-        <v>754.64</v>
+        <v>754.61</v>
       </c>
       <c r="H6" s="12">
-        <v>15.15</v>
+        <v>15.12</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
@@ -1097,13 +1097,13 @@
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="12">
-        <v>749.94</v>
+        <v>749.96</v>
       </c>
       <c r="G7" s="12">
-        <v>4.7</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="H7" s="12">
-        <v>8.07</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
@@ -1144,13 +1144,13 @@
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="12">
-        <v>4.7</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="G8" s="12">
         <v>0</v>
       </c>
       <c r="H8" s="12">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="I8" s="12">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="12">
-        <v>5.12</v>
+        <v>5.04</v>
       </c>
       <c r="L8" s="12">
         <v>0</v>
@@ -1183,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1194,7 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
@@ -1225,10 +1225,12 @@
       <c r="J1" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>1204</v>
+        <v>372</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>36</v>
@@ -1240,10 +1242,10 @@
         <v>37</v>
       </c>
       <c r="E2" s="11">
-        <v>1559.9</v>
+        <v>1557.38</v>
       </c>
       <c r="F2" s="11">
-        <v>1536.26</v>
+        <v>1533.82</v>
       </c>
       <c r="G2" s="12">
         <v>31.76</v>
@@ -1252,15 +1254,17 @@
         <v>0</v>
       </c>
       <c r="I2" s="12">
-        <v>11.67</v>
+        <v>9.24</v>
       </c>
       <c r="J2" s="12">
-        <v>-45.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>-43.01</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>1203</v>
+        <v>371</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>36</v>
@@ -1272,7 +1276,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="12">
-        <v>43.43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="12">
         <v>0</v>
@@ -1284,15 +1288,17 @@
         <v>0</v>
       </c>
       <c r="I3" s="12">
-        <v>11.67</v>
+        <v>9.24</v>
       </c>
       <c r="J3" s="11">
-        <v>1534.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>1531.81</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>1202</v>
+        <v>370</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>36</v>
@@ -1304,7 +1310,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="12">
-        <v>43.43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="12">
         <v>0</v>
@@ -1316,15 +1322,17 @@
         <v>0</v>
       </c>
       <c r="I4" s="12">
-        <v>11.67</v>
+        <v>9.24</v>
       </c>
       <c r="J4" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>1201</v>
+        <v>369</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>36</v>
@@ -1339,24 +1347,26 @@
         <v>3600</v>
       </c>
       <c r="F5" s="11">
-        <v>3463.74</v>
+        <v>3466.18</v>
       </c>
       <c r="G5" s="12">
-        <v>124.59</v>
+        <v>124.58</v>
       </c>
       <c r="H5" s="12">
         <v>0</v>
       </c>
       <c r="I5" s="12">
-        <v>11.67</v>
+        <v>9.24</v>
       </c>
       <c r="J5" s="11">
         <v>1490.81</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>1198</v>
+        <v>366</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>36</v>
@@ -1385,10 +1395,12 @@
       <c r="J6" s="11">
         <v>5090.8100000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>1197</v>
+        <v>365</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>36</v>
@@ -1417,10 +1429,12 @@
       <c r="J7" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>1196</v>
+        <v>364</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>36</v>
@@ -1449,10 +1463,12 @@
       <c r="J8" s="11">
         <v>5044.38</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>1195</v>
+        <v>363</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>36</v>
@@ -1481,10 +1497,12 @@
       <c r="J9" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>1194</v>
+        <v>362</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>36</v>
@@ -1513,6 +1531,8 @@
       <c r="J10" s="10">
         <v>5000</v>
       </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1524,12 +1544,12 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1578,7 +1598,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -1596,16 +1616,16 @@
         <v>51</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
